--- a/modules/tensor_mechanics/tests/mohr_coulomb/hard3.xlsx
+++ b/modules/tensor_mechanics/tests/mohr_coulomb/hard3.xlsx
@@ -14,8 +14,8 @@
     <sheet name="expected_hard" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="small_deform2" localSheetId="2">small_deform_hard3!$C$4:$M$35</definedName>
-    <definedName name="small_deform2" localSheetId="1">small_deform3!$C$4:$M$35</definedName>
+    <definedName name="small_deform2" localSheetId="2">small_deform_hard3!$C$4:$K$35</definedName>
+    <definedName name="small_deform2" localSheetId="1">small_deform3!$C$4:$K$35</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -59,18 +59,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
   <si>
     <t>time</t>
   </si>
   <si>
     <t>f</t>
-  </si>
-  <si>
-    <t>max_ps</t>
-  </si>
-  <si>
-    <t>min_ps</t>
   </si>
   <si>
     <t>s_xx</t>
@@ -133,13 +127,7 @@
     <t>aaa_minus</t>
   </si>
   <si>
-    <t>NEEDS TO BE 1</t>
-  </si>
-  <si>
     <t>internal</t>
-  </si>
-  <si>
-    <t>at lode=30</t>
   </si>
 </sst>
 </file>
@@ -1474,11 +1462,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="186793984"/>
-        <c:axId val="186796288"/>
+        <c:axId val="130104320"/>
+        <c:axId val="130135552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="186793984"/>
+        <c:axId val="130104320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.2"/>
@@ -1505,12 +1493,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186796288"/>
+        <c:crossAx val="130135552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="186796288"/>
+        <c:axId val="130135552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.5"/>
@@ -1537,7 +1525,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186793984"/>
+        <c:crossAx val="130104320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1882,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:Q35"/>
+  <dimension ref="C4:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="O5" sqref="O5:P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1893,8 +1881,9 @@
     <col min="3" max="3" width="4.6640625" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
     <col min="5" max="5" width="8.21875" customWidth="1"/>
-    <col min="6" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" customWidth="1"/>
     <col min="11" max="11" width="8.5546875" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" customWidth="1"/>
@@ -1902,12 +1891,7 @@
     <col min="15" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17">
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="3:17">
+    <row r="4" spans="3:16">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -1915,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
@@ -1935,23 +1919,14 @@
       <c r="K4" t="s">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="3:17">
+    </row>
+    <row r="5" spans="3:16">
       <c r="C5">
         <v>0</v>
       </c>
@@ -1979,26 +1954,16 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="O5" s="2">
+        <f>(F5+I5+K5)/3</f>
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="P5">
+        <f>SQRT(0.5*((F5-O5)^2+(I5-O5)^2+(K5-O5)^2))</f>
         <v>0</v>
       </c>
-      <c r="O5" s="2">
-        <f>(H5+K5+M5)/3</f>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f>SQRT(0.5*((H5-O5)^2+(K5-O5)^2+(M5-O5)^2))</f>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f>IF(J5&lt;=G5,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:17">
+    </row>
+    <row r="6" spans="3:16">
       <c r="C6">
         <v>1</v>
       </c>
@@ -2011,41 +1976,31 @@
       <c r="F6">
         <v>3.2681908400233</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
+        <v>-5.5710243690273E-19</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5.7645617365932996E-19</v>
+      </c>
+      <c r="I6" s="1">
         <v>2.9642971282607999</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
+        <v>5.5312322490527001E-18</v>
+      </c>
+      <c r="K6" s="1">
         <v>3.2681908400233</v>
       </c>
-      <c r="I6" s="1">
-        <v>-5.5710243690273E-19</v>
-      </c>
-      <c r="J6" s="1">
-        <v>5.7645617365932996E-19</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2.9642971282607999</v>
-      </c>
-      <c r="L6" s="1">
-        <v>5.5312322490527001E-18</v>
-      </c>
-      <c r="M6">
-        <v>3.2681908400233</v>
-      </c>
       <c r="O6" s="2">
-        <f t="shared" ref="O6:O14" si="0">(H6+K6+M6)/3</f>
+        <f t="shared" ref="O6:O35" si="0">(F6+I6+K6)/3</f>
         <v>3.1668929361024669</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P14" si="1">SQRT(0.5*((H6-O6)^2+(K6-O6)^2+(M6-O6)^2))</f>
+        <f t="shared" ref="P6:P35" si="1">SQRT(0.5*((F6-O6)^2+(I6-O6)^2+(K6-O6)^2))</f>
         <v>0.17545311629111393</v>
       </c>
-      <c r="Q6">
-        <f t="shared" ref="Q6" si="2">IF(J6&lt;=G6,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:17">
+    </row>
+    <row r="7" spans="3:16">
       <c r="C7">
         <v>2</v>
       </c>
@@ -2058,27 +2013,21 @@
       <c r="F7">
         <v>3.3466600041246002</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
+        <v>-8.2293591256359001E-19</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8.0161941642753995E-19</v>
+      </c>
+      <c r="I7" s="1">
         <v>2.7898789796629999</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
+        <v>5.8060505833963001E-18</v>
+      </c>
+      <c r="K7" s="1">
         <v>3.3466600041246002</v>
       </c>
-      <c r="I7" s="1">
-        <v>-8.2293591256359001E-19</v>
-      </c>
-      <c r="J7" s="1">
-        <v>8.0161941642753995E-19</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2.7898789796629999</v>
-      </c>
-      <c r="L7" s="1">
-        <v>5.8060505833963001E-18</v>
-      </c>
-      <c r="M7">
-        <v>3.3466600041246002</v>
-      </c>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
         <v>3.1610663293040666</v>
@@ -2087,12 +2036,8 @@
         <f t="shared" si="1"/>
         <v>0.32145767435258055</v>
       </c>
-      <c r="Q7">
-        <f t="shared" ref="Q7:Q14" si="3">IF(J7&lt;=G7,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:17">
+    </row>
+    <row r="8" spans="3:16">
       <c r="C8">
         <v>3</v>
       </c>
@@ -2105,27 +2050,21 @@
       <c r="F8">
         <v>3.4674785684281</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
+        <v>-7.5948170334265002E-18</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.2921718513463E-18</v>
+      </c>
+      <c r="I8" s="1">
         <v>2.4977219968986</v>
       </c>
-      <c r="H8" s="1">
+      <c r="J8" s="1">
+        <v>-9.3451700434457002E-18</v>
+      </c>
+      <c r="K8" s="1">
         <v>3.4674785684281</v>
       </c>
-      <c r="I8" s="1">
-        <v>-7.5948170334265002E-18</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.2921718513463E-18</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2.4977219968986</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-9.3451700434457002E-18</v>
-      </c>
-      <c r="M8">
-        <v>3.4674785684281</v>
-      </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
         <v>3.1442263779182666</v>
@@ -2134,12 +2073,8 @@
         <f t="shared" si="1"/>
         <v>0.55988921762096544</v>
       </c>
-      <c r="Q8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:17">
+    </row>
+    <row r="9" spans="3:16">
       <c r="C9">
         <v>4</v>
       </c>
@@ -2152,27 +2087,21 @@
       <c r="F9">
         <v>3.5355162705016001</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
+        <v>5.9638837785159999E-18</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.1134798099923E-18</v>
+      </c>
+      <c r="I9" s="1">
         <v>2.3184324341185998</v>
       </c>
-      <c r="H9" s="1">
+      <c r="J9" s="1">
+        <v>3.1435101087351E-17</v>
+      </c>
+      <c r="K9" s="1">
         <v>3.5355162705016001</v>
       </c>
-      <c r="I9" s="1">
-        <v>5.9638837785159999E-18</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.1134798099923E-18</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2.3184324341185998</v>
-      </c>
-      <c r="L9" s="1">
-        <v>3.1435101087351E-17</v>
-      </c>
-      <c r="M9">
-        <v>3.5355162705016001</v>
-      </c>
       <c r="O9" s="2">
         <f t="shared" si="0"/>
         <v>3.1298216583739333</v>
@@ -2181,12 +2110,8 @@
         <f t="shared" si="1"/>
         <v>0.70268368056206765</v>
       </c>
-      <c r="Q9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:17">
+    </row>
+    <row r="10" spans="3:16">
       <c r="C10">
         <v>5</v>
       </c>
@@ -2199,27 +2124,21 @@
       <c r="F10">
         <v>3.5065288865688</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
+        <v>7.7351203184446994E-18</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-1.9607522465301E-18</v>
+      </c>
+      <c r="I10" s="1">
         <v>2.3962537843052001</v>
       </c>
-      <c r="H10" s="1">
+      <c r="J10" s="1">
+        <v>1.4668599371269001E-18</v>
+      </c>
+      <c r="K10" s="1">
         <v>3.5065288865688</v>
       </c>
-      <c r="I10" s="1">
-        <v>7.7351203184446994E-18</v>
-      </c>
-      <c r="J10" s="1">
-        <v>-1.9607522465301E-18</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2.3962537843052001</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1.4668599371269001E-18</v>
-      </c>
-      <c r="M10">
-        <v>3.5065288865688</v>
-      </c>
       <c r="O10" s="2">
         <f t="shared" si="0"/>
         <v>3.1364371858142666</v>
@@ -2228,12 +2147,8 @@
         <f t="shared" si="1"/>
         <v>0.64101762916642868</v>
       </c>
-      <c r="Q10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:17">
+    </row>
+    <row r="11" spans="3:16">
       <c r="C11">
         <v>6</v>
       </c>
@@ -2246,27 +2161,21 @@
       <c r="F11">
         <v>3.4460425690602001</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
+        <v>-2.6334569928081999E-17</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4.9856669680904996E-18</v>
+      </c>
+      <c r="I11" s="1">
         <v>2.551869768705</v>
       </c>
-      <c r="H11" s="1">
+      <c r="J11" s="1">
+        <v>-2.1483520166203E-17</v>
+      </c>
+      <c r="K11" s="1">
         <v>3.4460425690602001</v>
       </c>
-      <c r="I11" s="1">
-        <v>-2.6334569928081999E-17</v>
-      </c>
-      <c r="J11" s="1">
-        <v>4.9856669680904996E-18</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2.551869768705</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-2.1483520166203E-17</v>
-      </c>
-      <c r="M11">
-        <v>3.4460425690602001</v>
-      </c>
       <c r="O11" s="2">
         <f t="shared" si="0"/>
         <v>3.1479849689418002</v>
@@ -2275,12 +2184,8 @@
         <f t="shared" si="1"/>
         <v>0.51625090698711629</v>
       </c>
-      <c r="Q11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:17">
+    </row>
+    <row r="12" spans="3:16">
       <c r="C12">
         <v>7</v>
       </c>
@@ -2293,27 +2198,21 @@
       <c r="F12">
         <v>3.4406402470957</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
+        <v>2.0014819064738999E-17</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-2.2905053305799001E-18</v>
+      </c>
+      <c r="I12" s="1">
         <v>2.56534974188</v>
       </c>
-      <c r="H12" s="1">
+      <c r="J12" s="1">
+        <v>6.9346189333303998E-18</v>
+      </c>
+      <c r="K12" s="1">
         <v>3.4406402470957</v>
       </c>
-      <c r="I12" s="1">
-        <v>2.0014819064738999E-17</v>
-      </c>
-      <c r="J12" s="1">
-        <v>-2.2905053305799001E-18</v>
-      </c>
-      <c r="K12" s="1">
-        <v>2.56534974188</v>
-      </c>
-      <c r="L12" s="1">
-        <v>6.9346189333303998E-18</v>
-      </c>
-      <c r="M12">
-        <v>3.4406402470957</v>
-      </c>
       <c r="O12" s="2">
         <f t="shared" si="0"/>
         <v>3.1488767453571334</v>
@@ -2322,12 +2221,8 @@
         <f t="shared" si="1"/>
         <v>0.50534920880540801</v>
       </c>
-      <c r="Q12">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:17">
+    </row>
+    <row r="13" spans="3:16">
       <c r="C13">
         <v>8</v>
       </c>
@@ -2340,27 +2235,21 @@
       <c r="F13">
         <v>3.5303985510373002</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
+        <v>-7.0046988027042004E-18</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5.3132505283015001E-18</v>
+      </c>
+      <c r="I13" s="1">
         <v>2.3323331961927001</v>
       </c>
-      <c r="H13" s="1">
+      <c r="J13" s="1">
+        <v>7.5351878261178002E-17</v>
+      </c>
+      <c r="K13" s="1">
         <v>3.5303985510373002</v>
       </c>
-      <c r="I13" s="1">
-        <v>-7.0046988027042004E-18</v>
-      </c>
-      <c r="J13" s="1">
-        <v>5.3132505283015001E-18</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2.3323331961927001</v>
-      </c>
-      <c r="L13" s="1">
-        <v>7.5351878261178002E-17</v>
-      </c>
-      <c r="M13">
-        <v>3.5303985510373002</v>
-      </c>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
         <v>3.1310434327557672</v>
@@ -2369,12 +2258,8 @@
         <f t="shared" si="1"/>
         <v>0.69170335512629433</v>
       </c>
-      <c r="Q13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:17">
+    </row>
+    <row r="14" spans="3:16">
       <c r="C14">
         <v>9</v>
       </c>
@@ -2387,27 +2272,21 @@
       <c r="F14">
         <v>3.6804875299339002</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
+        <v>-2.0175816799310001E-17</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-6.2667096114313999E-18</v>
+      </c>
+      <c r="I14" s="1">
         <v>1.8920707733140001</v>
       </c>
-      <c r="H14" s="1">
+      <c r="J14" s="1">
+        <v>-7.4563047154489996E-17</v>
+      </c>
+      <c r="K14" s="1">
         <v>3.6804875299339002</v>
       </c>
-      <c r="I14" s="1">
-        <v>-2.0175816799310001E-17</v>
-      </c>
-      <c r="J14" s="1">
-        <v>-6.2667096114313999E-18</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1.8920707733140001</v>
-      </c>
-      <c r="L14" s="1">
-        <v>-7.4563047154489996E-17</v>
-      </c>
-      <c r="M14">
-        <v>3.6804875299339002</v>
-      </c>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
         <v>3.0843486110606002</v>
@@ -2416,12 +2295,8 @@
         <f t="shared" si="1"/>
         <v>1.0325428958577367</v>
       </c>
-      <c r="Q14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:17">
+    </row>
+    <row r="15" spans="3:16">
       <c r="C15">
         <v>10</v>
       </c>
@@ -2434,41 +2309,31 @@
       <c r="F15">
         <v>3.7736178570654002</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
+        <v>4.4815745884958002E-17</v>
+      </c>
+      <c r="H15" s="1">
+        <v>7.9307678082056997E-19</v>
+      </c>
+      <c r="I15" s="1">
         <v>1.577985924167</v>
       </c>
-      <c r="H15" s="1">
+      <c r="J15" s="1">
+        <v>8.7573181704030995E-17</v>
+      </c>
+      <c r="K15" s="1">
         <v>3.7736178570654002</v>
       </c>
-      <c r="I15" s="1">
-        <v>4.4815745884958002E-17</v>
-      </c>
-      <c r="J15" s="1">
-        <v>7.9307678082056997E-19</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1.577985924167</v>
-      </c>
-      <c r="L15" s="1">
-        <v>8.7573181704030995E-17</v>
-      </c>
-      <c r="M15">
-        <v>3.7736178570654002</v>
-      </c>
       <c r="O15" s="2">
-        <f t="shared" ref="O15:O35" si="4">(H15+K15+M15)/3</f>
+        <f t="shared" si="0"/>
         <v>3.0417405460992666</v>
       </c>
       <c r="P15">
-        <f t="shared" ref="P15:P35" si="5">SQRT(0.5*((H15-O15)^2+(K15-O15)^2+(M15-O15)^2))</f>
+        <f t="shared" si="1"/>
         <v>1.2676486875002295</v>
       </c>
-      <c r="Q15">
-        <f t="shared" ref="Q15:Q35" si="6">IF(J15&lt;=G15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:17">
+    </row>
+    <row r="16" spans="3:16">
       <c r="C16">
         <v>11</v>
       </c>
@@ -2481,41 +2346,31 @@
       <c r="F16">
         <v>3.7272203598215001</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
+        <v>-3.9363530921824002E-17</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-1.6882030600028001E-18</v>
+      </c>
+      <c r="I16" s="1">
         <v>1.7390364432365999</v>
       </c>
-      <c r="H16" s="1">
+      <c r="J16" s="1">
+        <v>7.9430944519267998E-17</v>
+      </c>
+      <c r="K16" s="1">
         <v>3.7272203598215001</v>
       </c>
-      <c r="I16" s="1">
-        <v>-3.9363530921824002E-17</v>
-      </c>
-      <c r="J16" s="1">
-        <v>-1.6882030600028001E-18</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1.7390364432365999</v>
-      </c>
-      <c r="L16" s="1">
-        <v>7.9430944519267998E-17</v>
-      </c>
-      <c r="M16">
-        <v>3.7272203598215001</v>
-      </c>
       <c r="O16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.0644923876265331</v>
       </c>
       <c r="P16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.1478785194387766</v>
       </c>
-      <c r="Q16">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:17">
+    </row>
+    <row r="17" spans="3:16">
       <c r="C17">
         <v>12</v>
       </c>
@@ -2528,41 +2383,31 @@
       <c r="F17">
         <v>3.6073567705444001</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
+        <v>-4.3136193191919999E-17</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.5551858466422001E-17</v>
+      </c>
+      <c r="I17" s="1">
         <v>2.1154638966866002</v>
       </c>
-      <c r="H17" s="1">
+      <c r="J17" s="1">
+        <v>-1.3050436176025E-16</v>
+      </c>
+      <c r="K17" s="1">
         <v>3.6073567705444001</v>
       </c>
-      <c r="I17" s="1">
-        <v>-4.3136193191919999E-17</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.5551858466422001E-17</v>
-      </c>
-      <c r="K17" s="1">
-        <v>2.1154638966866002</v>
-      </c>
-      <c r="L17" s="1">
-        <v>-1.3050436176025E-16</v>
-      </c>
-      <c r="M17">
-        <v>3.6073567705444001</v>
-      </c>
       <c r="O17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.1100591459251334</v>
       </c>
       <c r="P17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.86134475232388519</v>
       </c>
-      <c r="Q17">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17">
+    </row>
+    <row r="18" spans="3:16">
       <c r="C18">
         <v>13</v>
       </c>
@@ -2575,41 +2420,31 @@
       <c r="F18">
         <v>3.5443924650995999</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
+        <v>1.0571096491917E-16</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-1.0427365531727001E-17</v>
+      </c>
+      <c r="I18" s="1">
         <v>2.2941545208438998</v>
       </c>
-      <c r="H18" s="1">
+      <c r="J18" s="1">
+        <v>-3.6845548093039002E-17</v>
+      </c>
+      <c r="K18" s="1">
         <v>3.5443924650995999</v>
       </c>
-      <c r="I18" s="1">
-        <v>1.0571096491917E-16</v>
-      </c>
-      <c r="J18" s="1">
-        <v>-1.0427365531727001E-17</v>
-      </c>
-      <c r="K18" s="1">
-        <v>2.2941545208438998</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-3.6845548093039002E-17</v>
-      </c>
-      <c r="M18">
-        <v>3.5443924650995999</v>
-      </c>
       <c r="O18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.1276464836810334</v>
       </c>
       <c r="P18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.72182521366711283</v>
       </c>
-      <c r="Q18">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17">
+    </row>
+    <row r="19" spans="3:16">
       <c r="C19">
         <v>14</v>
       </c>
@@ -2622,41 +2457,31 @@
       <c r="F19">
         <v>3.6079296630446001</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
+        <v>-4.5157385923638E-17</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4.7754712443888003E-18</v>
+      </c>
+      <c r="I19" s="1">
         <v>2.1137832081749002</v>
       </c>
-      <c r="H19" s="1">
+      <c r="J19" s="1">
+        <v>5.7047973458117994E-17</v>
+      </c>
+      <c r="K19" s="1">
         <v>3.6079296630446001</v>
       </c>
-      <c r="I19" s="1">
-        <v>-4.5157385923638E-17</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4.7754712443888003E-18</v>
-      </c>
-      <c r="K19" s="1">
-        <v>2.1137832081749002</v>
-      </c>
-      <c r="L19" s="1">
-        <v>5.7047973458117994E-17</v>
-      </c>
-      <c r="M19">
-        <v>3.6079296630446001</v>
-      </c>
       <c r="O19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.1098808447546999</v>
       </c>
       <c r="P19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.86264585792774628</v>
       </c>
-      <c r="Q19">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:17">
+    </row>
+    <row r="20" spans="3:16">
       <c r="C20">
         <v>15</v>
       </c>
@@ -2669,41 +2494,31 @@
       <c r="F20">
         <v>3.7703383459809001</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
+        <v>-1.0378402352438E-16</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-1.8277518911809002E-18</v>
+      </c>
+      <c r="I20" s="1">
         <v>1.5896923791424999</v>
       </c>
-      <c r="H20" s="1">
+      <c r="J20" s="1">
+        <v>1.8583040307288001E-17</v>
+      </c>
+      <c r="K20" s="1">
         <v>3.7703383459809001</v>
       </c>
-      <c r="I20" s="1">
-        <v>-1.0378402352438E-16</v>
-      </c>
-      <c r="J20" s="1">
-        <v>-1.8277518911809002E-18</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1.5896923791424999</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1.8583040307288001E-17</v>
-      </c>
-      <c r="M20">
-        <v>3.7703383459809001</v>
-      </c>
       <c r="O20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.0434563570347666</v>
       </c>
       <c r="P20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.2589965359614221</v>
       </c>
-      <c r="Q20">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17">
+    </row>
+    <row r="21" spans="3:16">
       <c r="C21">
         <v>16</v>
       </c>
@@ -2716,41 +2531,31 @@
       <c r="F21">
         <v>3.9044351095855001</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
+        <v>7.2991589054933999E-17</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.9209420863147001E-17</v>
+      </c>
+      <c r="I21" s="1">
         <v>1.0631328370077</v>
       </c>
-      <c r="H21" s="1">
+      <c r="J21" s="1">
+        <v>2.2477919167102002E-16</v>
+      </c>
+      <c r="K21" s="1">
         <v>3.9044351095855001</v>
       </c>
-      <c r="I21" s="1">
-        <v>7.2991589054933999E-17</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1.9209420863147001E-17</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1.0631328370077</v>
-      </c>
-      <c r="L21" s="1">
-        <v>2.2477919167102002E-16</v>
-      </c>
-      <c r="M21">
-        <v>3.9044351095855001</v>
-      </c>
       <c r="O21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.9573343520595667</v>
       </c>
       <c r="P21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.6404266319218883</v>
       </c>
-      <c r="Q21">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17">
+    </row>
+    <row r="22" spans="3:16">
       <c r="C22">
         <v>17</v>
       </c>
@@ -2763,41 +2568,31 @@
       <c r="F22">
         <v>3.8902684186343999</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
+        <v>1.6136543677073E-16</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2.4223399081768999E-18</v>
+      </c>
+      <c r="I22" s="1">
         <v>1.1240082959927999</v>
       </c>
-      <c r="H22" s="1">
+      <c r="J22" s="1">
+        <v>3.4201660211130002E-17</v>
+      </c>
+      <c r="K22" s="1">
         <v>3.8902684186343999</v>
       </c>
-      <c r="I22" s="1">
-        <v>1.6136543677073E-16</v>
-      </c>
-      <c r="J22" s="1">
-        <v>2.4223399081768999E-18</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1.1240082959927999</v>
-      </c>
-      <c r="L22" s="1">
-        <v>3.4201660211130002E-17</v>
-      </c>
-      <c r="M22">
-        <v>3.8902684186343999</v>
-      </c>
       <c r="O22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.9681817110871997</v>
       </c>
       <c r="P22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.5971010264556549</v>
       </c>
-      <c r="Q22">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17">
+    </row>
+    <row r="23" spans="3:16">
       <c r="C23">
         <v>18</v>
       </c>
@@ -2810,41 +2605,31 @@
       <c r="F23">
         <v>3.751935629244</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
+        <v>-1.7617940323505999E-16</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-1.7086132367022001E-17</v>
+      </c>
+      <c r="I23" s="1">
         <v>1.6544503669321</v>
       </c>
-      <c r="H23" s="1">
+      <c r="J23" s="1">
+        <v>-2.0863879916237001E-16</v>
+      </c>
+      <c r="K23" s="1">
         <v>3.751935629244</v>
       </c>
-      <c r="I23" s="1">
-        <v>-1.7617940323505999E-16</v>
-      </c>
-      <c r="J23" s="1">
-        <v>-1.7086132367022001E-17</v>
-      </c>
-      <c r="K23" s="1">
-        <v>1.6544503669321</v>
-      </c>
-      <c r="L23" s="1">
-        <v>-2.0863879916237001E-16</v>
-      </c>
-      <c r="M23">
-        <v>3.751935629244</v>
-      </c>
       <c r="O23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.0527738751400335</v>
       </c>
       <c r="P23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.2109836808170482</v>
       </c>
-      <c r="Q23">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17">
+    </row>
+    <row r="24" spans="3:16">
       <c r="C24">
         <v>19</v>
       </c>
@@ -2857,41 +2642,31 @@
       <c r="F24">
         <v>3.6352957779803998</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
+        <v>-1.6053095149778001E-17</v>
+      </c>
+      <c r="H24" s="1">
+        <v>-2.2834467854238E-19</v>
+      </c>
+      <c r="I24" s="1">
         <v>2.0322686345671999</v>
       </c>
-      <c r="H24" s="1">
+      <c r="J24" s="1">
+        <v>-4.1386858831096002E-17</v>
+      </c>
+      <c r="K24" s="1">
         <v>3.6352957779803998</v>
       </c>
-      <c r="I24" s="1">
-        <v>-1.6053095149778001E-17</v>
-      </c>
-      <c r="J24" s="1">
-        <v>-2.2834467854238E-19</v>
-      </c>
-      <c r="K24" s="1">
-        <v>2.0322686345671999</v>
-      </c>
-      <c r="L24" s="1">
-        <v>-4.1386858831096002E-17</v>
-      </c>
-      <c r="M24">
-        <v>3.6352957779803998</v>
-      </c>
       <c r="O24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.1009533968426664</v>
       </c>
       <c r="P24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.92550815276788778</v>
       </c>
-      <c r="Q24">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17">
+    </row>
+    <row r="25" spans="3:16">
       <c r="C25">
         <v>20</v>
       </c>
@@ -2904,41 +2679,31 @@
       <c r="F25">
         <v>3.6553554507264998</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
+        <v>1.0501210151894E-16</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.8248952198296998E-18</v>
+      </c>
+      <c r="I25" s="1">
         <v>1.9709287102866999</v>
       </c>
-      <c r="H25" s="1">
+      <c r="J25" s="1">
+        <v>2.4160404424252001E-16</v>
+      </c>
+      <c r="K25" s="1">
         <v>3.6553554507264998</v>
       </c>
-      <c r="I25" s="1">
-        <v>1.0501210151894E-16</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1.8248952198296998E-18</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1.9709287102866999</v>
-      </c>
-      <c r="L25" s="1">
-        <v>2.4160404424252001E-16</v>
-      </c>
-      <c r="M25">
-        <v>3.6553554507264998</v>
-      </c>
       <c r="O25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.0938798705798995</v>
       </c>
       <c r="P25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.97250423202312231</v>
       </c>
-      <c r="Q25">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:17">
+    </row>
+    <row r="26" spans="3:16">
       <c r="C26">
         <v>21</v>
       </c>
@@ -2951,41 +2716,31 @@
       <c r="F26">
         <v>3.8100373160959</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
+        <v>-2.9307538818036E-18</v>
+      </c>
+      <c r="H26" s="1">
+        <v>8.1083876166029006E-17</v>
+      </c>
+      <c r="I26" s="1">
         <v>1.4444146931813999</v>
       </c>
-      <c r="H26" s="1">
+      <c r="J26" s="1">
+        <v>-8.5615279716711998E-17</v>
+      </c>
+      <c r="K26" s="1">
         <v>3.8100373160959</v>
       </c>
-      <c r="I26" s="1">
-        <v>-2.9307538818036E-18</v>
-      </c>
-      <c r="J26" s="1">
-        <v>8.1083876166029006E-17</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1.4444146931813999</v>
-      </c>
-      <c r="L26" s="1">
-        <v>-8.5615279716711998E-17</v>
-      </c>
-      <c r="M26">
-        <v>3.8100373160959</v>
-      </c>
       <c r="O26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.0214964417910664</v>
       </c>
       <c r="P26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.3657928581407552</v>
       </c>
-      <c r="Q26">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17">
+    </row>
+    <row r="27" spans="3:16">
       <c r="C27">
         <v>22</v>
       </c>
@@ -2998,41 +2753,31 @@
       <c r="F27">
         <v>3.9770700498417999</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
+        <v>-1.136108925807E-16</v>
+      </c>
+      <c r="H27" s="1">
+        <v>-9.6461227374447999E-17</v>
+      </c>
+      <c r="I27" s="1">
         <v>0.72624684922006999</v>
       </c>
-      <c r="H27" s="1">
+      <c r="J27" s="1">
+        <v>3.4041101181604E-16</v>
+      </c>
+      <c r="K27" s="1">
         <v>3.9770700498417999</v>
       </c>
-      <c r="I27" s="1">
-        <v>-1.136108925807E-16</v>
-      </c>
-      <c r="J27" s="1">
-        <v>-9.6461227374447999E-17</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0.72624684922006999</v>
-      </c>
-      <c r="L27" s="1">
-        <v>3.4041101181604E-16</v>
-      </c>
-      <c r="M27">
-        <v>3.9770700498417999</v>
-      </c>
       <c r="O27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.893462316301223</v>
       </c>
       <c r="P27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.8768636499668365</v>
       </c>
-      <c r="Q27">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17">
+    </row>
+    <row r="28" spans="3:16">
       <c r="C28">
         <v>23</v>
       </c>
@@ -3045,41 +2790,31 @@
       <c r="F28">
         <v>4.0108089915885001</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
+        <v>-1.8110346856542E-16</v>
+      </c>
+      <c r="H28" s="1">
+        <v>-3.1255627067547E-17</v>
+      </c>
+      <c r="I28" s="1">
         <v>0.55316199019800005</v>
       </c>
-      <c r="H28" s="1">
+      <c r="J28" s="1">
+        <v>6.9805975667436002E-16</v>
+      </c>
+      <c r="K28" s="1">
         <v>4.0108089915885001</v>
       </c>
-      <c r="I28" s="1">
-        <v>-1.8110346856542E-16</v>
-      </c>
-      <c r="J28" s="1">
-        <v>-3.1255627067547E-17</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0.55316199019800005</v>
-      </c>
-      <c r="L28" s="1">
-        <v>6.9805975667436002E-16</v>
-      </c>
-      <c r="M28">
-        <v>4.0108089915885001</v>
-      </c>
       <c r="O28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.8582599911250006</v>
       </c>
       <c r="P28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.9962734270155078</v>
       </c>
-      <c r="Q28">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:17">
+    </row>
+    <row r="29" spans="3:16">
       <c r="C29">
         <v>24</v>
       </c>
@@ -3092,41 +2827,31 @@
       <c r="F29">
         <v>3.8871629569374999</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
+        <v>9.6779510614188994E-18</v>
+      </c>
+      <c r="H29" s="1">
+        <v>7.0464044569413995E-17</v>
+      </c>
+      <c r="I29" s="1">
         <v>1.1371648600397</v>
       </c>
-      <c r="H29" s="1">
+      <c r="J29" s="1">
+        <v>-9.6299974714867006E-16</v>
+      </c>
+      <c r="K29" s="1">
         <v>3.8871629569374999</v>
       </c>
-      <c r="I29" s="1">
-        <v>9.6779510614188994E-18</v>
-      </c>
-      <c r="J29" s="1">
-        <v>7.0464044569413995E-17</v>
-      </c>
-      <c r="K29" s="1">
-        <v>1.1371648600397</v>
-      </c>
-      <c r="L29" s="1">
-        <v>-9.6299974714867006E-16</v>
-      </c>
-      <c r="M29">
-        <v>3.8871629569374999</v>
-      </c>
       <c r="O29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.9704969246382333</v>
       </c>
       <c r="P29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.5877121415149034</v>
       </c>
-      <c r="Q29">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17">
+    </row>
+    <row r="30" spans="3:16">
       <c r="C30">
         <v>25</v>
       </c>
@@ -3139,41 +2864,31 @@
       <c r="F30">
         <v>3.7292978731866002</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
+        <v>1.0238343519840999E-18</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1.7004314415160001E-17</v>
+      </c>
+      <c r="I30" s="1">
         <v>1.73202774115</v>
       </c>
-      <c r="H30" s="1">
+      <c r="J30" s="1">
+        <v>-9.0646082769446998E-17</v>
+      </c>
+      <c r="K30" s="1">
         <v>3.7292978731866002</v>
       </c>
-      <c r="I30" s="1">
-        <v>1.0238343519840999E-18</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1.7004314415160001E-17</v>
-      </c>
-      <c r="K30" s="1">
-        <v>1.73202774115</v>
-      </c>
-      <c r="L30" s="1">
-        <v>-9.0646082769446998E-17</v>
-      </c>
-      <c r="M30">
-        <v>3.7292978731866002</v>
-      </c>
       <c r="O30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.0635411625077338</v>
       </c>
       <c r="P30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.1531244483757304</v>
       </c>
-      <c r="Q30">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:17">
+    </row>
+    <row r="31" spans="3:16">
       <c r="C31">
         <v>26</v>
       </c>
@@ -3186,41 +2901,31 @@
       <c r="F31">
         <v>3.6954597491857002</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
+        <v>3.0776984457610002E-16</v>
+      </c>
+      <c r="H31" s="1">
+        <v>-4.3234654456485999E-17</v>
+      </c>
+      <c r="I31" s="1">
         <v>1.8439781258961001</v>
       </c>
-      <c r="H31" s="1">
+      <c r="J31" s="1">
+        <v>-8.8296505834860002E-17</v>
+      </c>
+      <c r="K31" s="1">
         <v>3.6954597491857002</v>
       </c>
-      <c r="I31" s="1">
-        <v>3.0776984457610002E-16</v>
-      </c>
-      <c r="J31" s="1">
-        <v>-4.3234654456485999E-17</v>
-      </c>
-      <c r="K31" s="1">
-        <v>1.8439781258961001</v>
-      </c>
-      <c r="L31" s="1">
-        <v>-8.8296505834860002E-17</v>
-      </c>
-      <c r="M31">
-        <v>3.6954597491857002</v>
-      </c>
       <c r="O31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.0782992080891667</v>
       </c>
       <c r="P31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.0689534136058958</v>
       </c>
-      <c r="Q31">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="3:17">
+    </row>
+    <row r="32" spans="3:16">
       <c r="C32">
         <v>27</v>
       </c>
@@ -3233,41 +2938,31 @@
       <c r="F32">
         <v>3.8244886268378999</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
+        <v>-1.0300784021838999E-16</v>
+      </c>
+      <c r="H32" s="1">
+        <v>7.3771435319843002E-17</v>
+      </c>
+      <c r="I32" s="1">
         <v>1.3894991605353</v>
       </c>
-      <c r="H32" s="1">
+      <c r="J32" s="1">
+        <v>1.2329497974178001E-16</v>
+      </c>
+      <c r="K32" s="1">
         <v>3.8244886268378999</v>
       </c>
-      <c r="I32" s="1">
-        <v>-1.0300784021838999E-16</v>
-      </c>
-      <c r="J32" s="1">
-        <v>7.3771435319843002E-17</v>
-      </c>
-      <c r="K32" s="1">
-        <v>1.3894991605353</v>
-      </c>
-      <c r="L32" s="1">
-        <v>1.2329497974178001E-16</v>
-      </c>
-      <c r="M32">
-        <v>3.8244886268378999</v>
-      </c>
       <c r="O32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.0128254714036999</v>
       </c>
       <c r="P32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.4058418238437091</v>
       </c>
-      <c r="Q32">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="3:17">
+    </row>
+    <row r="33" spans="3:16">
       <c r="C33">
         <v>28</v>
       </c>
@@ -3280,41 +2975,31 @@
       <c r="F33">
         <v>4.0113635423930996</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
+        <v>-3.1498328943399998E-17</v>
+      </c>
+      <c r="H33" s="1">
+        <v>-6.9793421368282996E-17</v>
+      </c>
+      <c r="I33" s="1">
         <v>0.55021472131850002</v>
       </c>
-      <c r="H33" s="1">
+      <c r="J33" s="1">
+        <v>4.0370852341048001E-17</v>
+      </c>
+      <c r="K33" s="1">
         <v>4.0113635423930996</v>
       </c>
-      <c r="I33" s="1">
-        <v>-3.1498328943399998E-17</v>
-      </c>
-      <c r="J33" s="1">
-        <v>-6.9793421368282996E-17</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0.55021472131850002</v>
-      </c>
-      <c r="L33" s="1">
-        <v>4.0370852341048001E-17</v>
-      </c>
-      <c r="M33">
-        <v>4.0113635423930996</v>
-      </c>
       <c r="O33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.8576472687015659</v>
       </c>
       <c r="P33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.9982952035527759</v>
       </c>
-      <c r="Q33">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:17">
+    </row>
+    <row r="34" spans="3:16">
       <c r="C34">
         <v>29</v>
       </c>
@@ -3327,41 +3012,31 @@
       <c r="F34">
         <v>4.0931981672258999</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
+        <v>-3.0724736846146998E-16</v>
+      </c>
+      <c r="H34" s="1">
+        <v>3.6748506182344001E-17</v>
+      </c>
+      <c r="I34" s="1">
         <v>7.1065526361851997E-2</v>
       </c>
-      <c r="H34" s="1">
+      <c r="J34" s="1">
+        <v>2.6688931879751001E-17</v>
+      </c>
+      <c r="K34" s="1">
         <v>4.0931981672258999</v>
       </c>
-      <c r="I34" s="1">
-        <v>-3.0724736846146998E-16</v>
-      </c>
-      <c r="J34" s="1">
-        <v>3.6748506182344001E-17</v>
-      </c>
-      <c r="K34" s="1">
-        <v>7.1065526361851997E-2</v>
-      </c>
-      <c r="L34" s="1">
-        <v>2.6688931879751001E-17</v>
-      </c>
-      <c r="M34">
-        <v>4.0931981672258999</v>
-      </c>
       <c r="O34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.752487286937884</v>
       </c>
       <c r="P34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>2.3221793629192384</v>
       </c>
-      <c r="Q34">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:17">
+    </row>
+    <row r="35" spans="3:16">
       <c r="C35">
         <v>30</v>
       </c>
@@ -3374,38 +3049,28 @@
       <c r="F35">
         <v>4.0081053690664996</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
+        <v>-4.1223419719813002E-17</v>
+      </c>
+      <c r="H35" s="1">
+        <v>-3.9685495163674002E-17</v>
+      </c>
+      <c r="I35" s="1">
         <v>0.56748120054063</v>
       </c>
-      <c r="H35" s="1">
+      <c r="J35" s="1">
+        <v>5.5226745102114E-18</v>
+      </c>
+      <c r="K35" s="1">
         <v>4.0081053690664996</v>
       </c>
-      <c r="I35" s="1">
-        <v>-4.1223419719813002E-17</v>
-      </c>
-      <c r="J35" s="1">
-        <v>-3.9685495163674002E-17</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0.56748120054063</v>
-      </c>
-      <c r="L35" s="1">
-        <v>5.5226745102114E-18</v>
-      </c>
-      <c r="M35">
-        <v>4.0081053690664996</v>
-      </c>
       <c r="O35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.8612306462245432</v>
       </c>
       <c r="P35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.986445289878743</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="6"/>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3416,10 +3081,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:Q35"/>
+  <dimension ref="C4:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="O5" sqref="O5:P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3427,19 +3092,15 @@
     <col min="3" max="3" width="4.6640625" customWidth="1"/>
     <col min="4" max="5" width="8.21875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" customWidth="1"/>
-    <col min="10" max="12" width="8.88671875" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="15" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17">
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="3:17">
+    <row r="4" spans="3:16">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -3447,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
@@ -3467,23 +3128,14 @@
       <c r="K4" t="s">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="3:17">
+    </row>
+    <row r="5" spans="3:16">
       <c r="C5">
         <v>0</v>
       </c>
@@ -3511,26 +3163,16 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="O5" s="2">
+        <f>(F5+I5+K5)/3</f>
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="P5">
+        <f>SQRT(0.5*((F5-O5)^2+(I5-O5)^2+(K5-O5)^2))</f>
         <v>0</v>
       </c>
-      <c r="O5" s="2">
-        <f>(H5+K5+M5)/3</f>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f>SQRT(0.5*((H5-O5)^2+(K5-O5)^2+(M5-O5)^2))</f>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f>IF(K5&lt;=H5,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:17">
+    </row>
+    <row r="6" spans="3:16">
       <c r="C6">
         <v>1</v>
       </c>
@@ -3543,41 +3185,31 @@
       <c r="F6">
         <v>2.9675195391077001</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
+        <v>-5.5027283543971002E-19</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5.6869930547096002E-19</v>
+      </c>
+      <c r="I6" s="1">
         <v>2.6673513054638001</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
+        <v>5.4634240519273996E-18</v>
+      </c>
+      <c r="K6" s="1">
         <v>2.9675195391077001</v>
       </c>
-      <c r="I6" s="1">
-        <v>-5.5027283543971002E-19</v>
-      </c>
-      <c r="J6" s="1">
-        <v>5.6869930547096002E-19</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2.6673513054638001</v>
-      </c>
-      <c r="L6" s="1">
-        <v>5.4634240519273996E-18</v>
-      </c>
-      <c r="M6">
-        <v>2.9675195391077001</v>
-      </c>
       <c r="O6" s="2">
-        <f t="shared" ref="O6:O35" si="0">(H6+K6+M6)/3</f>
+        <f t="shared" ref="O6:O35" si="0">(F6+I6+K6)/3</f>
         <v>2.8674634612264001</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P35" si="1">SQRT(0.5*((H6-O6)^2+(K6-O6)^2+(M6-O6)^2))</f>
+        <f t="shared" ref="P6:P35" si="1">SQRT(0.5*((F6-O6)^2+(I6-O6)^2+(K6-O6)^2))</f>
         <v>0.17330221049648015</v>
       </c>
-      <c r="Q6">
-        <f t="shared" ref="Q6:Q35" si="2">IF(K6&lt;=H6,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:17">
+    </row>
+    <row r="7" spans="3:16">
       <c r="C7">
         <v>2</v>
       </c>
@@ -3590,27 +3222,21 @@
       <c r="F7">
         <v>3.0481834709891</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
+        <v>-8.2718240195670001E-19</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8.0579806250525005E-19</v>
+      </c>
+      <c r="I7" s="1">
         <v>2.4885042591831001</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
+        <v>5.8354605801864001E-18</v>
+      </c>
+      <c r="K7" s="1">
         <v>3.0481834709891</v>
       </c>
-      <c r="I7" s="1">
-        <v>-8.2718240195670001E-19</v>
-      </c>
-      <c r="J7" s="1">
-        <v>8.0579806250525005E-19</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2.4885042591831001</v>
-      </c>
-      <c r="L7" s="1">
-        <v>5.8354605801864001E-18</v>
-      </c>
-      <c r="M7">
-        <v>3.0481834709891</v>
-      </c>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
         <v>2.8616237337204335</v>
@@ -3619,12 +3245,8 @@
         <f t="shared" si="1"/>
         <v>0.32313094359603162</v>
       </c>
-      <c r="Q7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:17">
+    </row>
+    <row r="8" spans="3:16">
       <c r="C8">
         <v>3</v>
       </c>
@@ -3637,27 +3259,21 @@
       <c r="F8">
         <v>3.1694734397377999</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
+        <v>-7.6212092252120995E-18</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.2961338781048999E-18</v>
+      </c>
+      <c r="I8" s="1">
         <v>2.1962529697826998</v>
       </c>
-      <c r="H8" s="1">
+      <c r="J8" s="1">
+        <v>-9.3762633272234997E-18</v>
+      </c>
+      <c r="K8" s="1">
         <v>3.1694734397377999</v>
       </c>
-      <c r="I8" s="1">
-        <v>-7.6212092252120995E-18</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.2961338781048999E-18</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2.1962529697826998</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-9.3762633272234997E-18</v>
-      </c>
-      <c r="M8">
-        <v>3.1694734397377999</v>
-      </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
         <v>2.8450666164194334</v>
@@ -3666,12 +3282,8 @@
         <f t="shared" si="1"/>
         <v>0.56188910030943118</v>
       </c>
-      <c r="Q8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:17">
+    </row>
+    <row r="9" spans="3:16">
       <c r="C9">
         <v>4</v>
       </c>
@@ -3684,27 +3296,21 @@
       <c r="F9">
         <v>3.2377272816190001</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
+        <v>5.9776936090179003E-18</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.1159555339247999E-18</v>
+      </c>
+      <c r="I9" s="1">
         <v>2.0174010542655001</v>
       </c>
-      <c r="H9" s="1">
+      <c r="J9" s="1">
+        <v>3.1513068319186002E-17</v>
+      </c>
+      <c r="K9" s="1">
         <v>3.2377272816190001</v>
       </c>
-      <c r="I9" s="1">
-        <v>5.9776936090179003E-18</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.1159555339247999E-18</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2.0174010542655001</v>
-      </c>
-      <c r="L9" s="1">
-        <v>3.1513068319186002E-17</v>
-      </c>
-      <c r="M9">
-        <v>3.2377272816190001</v>
-      </c>
       <c r="O9" s="2">
         <f t="shared" si="0"/>
         <v>2.8309518725011666</v>
@@ -3713,12 +3319,8 @@
         <f t="shared" si="1"/>
         <v>0.70455567586170376</v>
       </c>
-      <c r="Q9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:17">
+    </row>
+    <row r="10" spans="3:16">
       <c r="C10">
         <v>5</v>
       </c>
@@ -3731,27 +3333,21 @@
       <c r="F10">
         <v>3.2083477392950002</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
+        <v>7.7506162401207E-18</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-1.9639250072624E-18</v>
+      </c>
+      <c r="I10" s="1">
         <v>2.0957853341063002</v>
       </c>
-      <c r="H10" s="1">
+      <c r="J10" s="1">
+        <v>1.4735694033874999E-18</v>
+      </c>
+      <c r="K10" s="1">
         <v>3.2083477392950002</v>
       </c>
-      <c r="I10" s="1">
-        <v>7.7506162401207E-18</v>
-      </c>
-      <c r="J10" s="1">
-        <v>-1.9639250072624E-18</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2.0957853341063002</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1.4735694033874999E-18</v>
-      </c>
-      <c r="M10">
-        <v>3.2083477392950002</v>
-      </c>
       <c r="O10" s="2">
         <f t="shared" si="0"/>
         <v>2.8374936042320997</v>
@@ -3760,12 +3356,8 @@
         <f t="shared" si="1"/>
         <v>0.64233820412595344</v>
       </c>
-      <c r="Q10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:17">
+    </row>
+    <row r="11" spans="3:16">
       <c r="C11">
         <v>6</v>
       </c>
@@ -3778,27 +3370,21 @@
       <c r="F11">
         <v>3.1473940104124001</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
+        <v>-2.6373432918343001E-17</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4.9953725817153001E-18</v>
+      </c>
+      <c r="I11" s="1">
         <v>2.251759399554</v>
       </c>
-      <c r="H11" s="1">
+      <c r="J11" s="1">
+        <v>-2.1515524175962001E-17</v>
+      </c>
+      <c r="K11" s="1">
         <v>3.1473940104124001</v>
       </c>
-      <c r="I11" s="1">
-        <v>-2.6373432918343001E-17</v>
-      </c>
-      <c r="J11" s="1">
-        <v>4.9953725817153001E-18</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2.251759399554</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-2.1515524175962001E-17</v>
-      </c>
-      <c r="M11">
-        <v>3.1473940104124001</v>
-      </c>
       <c r="O11" s="2">
         <f t="shared" si="0"/>
         <v>2.848849140126267</v>
@@ -3807,12 +3393,8 @@
         <f t="shared" si="1"/>
         <v>0.51709488367464307</v>
       </c>
-      <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:17">
+    </row>
+    <row r="12" spans="3:16">
       <c r="C12">
         <v>7</v>
       </c>
@@ -3825,27 +3407,21 @@
       <c r="F12">
         <v>3.1418888442333999</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
+        <v>2.0037642302288001E-17</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-2.2926900277451001E-18</v>
+      </c>
+      <c r="I12" s="1">
         <v>2.2654293347882999</v>
       </c>
-      <c r="H12" s="1">
+      <c r="J12" s="1">
+        <v>6.9415244274455004E-18</v>
+      </c>
+      <c r="K12" s="1">
         <v>3.1418888442333999</v>
       </c>
-      <c r="I12" s="1">
-        <v>2.0037642302288001E-17</v>
-      </c>
-      <c r="J12" s="1">
-        <v>-2.2926900277451001E-18</v>
-      </c>
-      <c r="K12" s="1">
-        <v>2.2654293347882999</v>
-      </c>
-      <c r="L12" s="1">
-        <v>6.9415244274455004E-18</v>
-      </c>
-      <c r="M12">
-        <v>3.1418888442333999</v>
-      </c>
       <c r="O12" s="2">
         <f t="shared" si="0"/>
         <v>2.8497356744183668</v>
@@ -3854,12 +3430,8 @@
         <f t="shared" si="1"/>
         <v>0.50602413371193578</v>
       </c>
-      <c r="Q12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:17">
+    </row>
+    <row r="13" spans="3:16">
       <c r="C13">
         <v>8</v>
       </c>
@@ -3872,27 +3444,21 @@
       <c r="F13">
         <v>3.2320808127667999</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
+        <v>-7.0109098716010008E-18</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5.3179773042354002E-18</v>
+      </c>
+      <c r="I13" s="1">
         <v>2.0326364785746001</v>
       </c>
-      <c r="H13" s="1">
+      <c r="J13" s="1">
+        <v>7.5434450049853002E-17</v>
+      </c>
+      <c r="K13" s="1">
         <v>3.2320808127667999</v>
       </c>
-      <c r="I13" s="1">
-        <v>-7.0109098716010008E-18</v>
-      </c>
-      <c r="J13" s="1">
-        <v>5.3179773042354002E-18</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2.0326364785746001</v>
-      </c>
-      <c r="L13" s="1">
-        <v>7.5434450049853002E-17</v>
-      </c>
-      <c r="M13">
-        <v>3.2320808127667999</v>
-      </c>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
         <v>2.8322660347027333</v>
@@ -3901,12 +3467,8 @@
         <f t="shared" si="1"/>
         <v>0.69249950922383807</v>
       </c>
-      <c r="Q13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:17">
+    </row>
+    <row r="14" spans="3:16">
       <c r="C14">
         <v>9</v>
       </c>
@@ -3919,27 +3481,21 @@
       <c r="F14">
         <v>3.3832961247904998</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
+        <v>-2.0196870931838E-17</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-6.2720055419551002E-18</v>
+      </c>
+      <c r="I14" s="1">
         <v>1.5929515170459001</v>
       </c>
-      <c r="H14" s="1">
+      <c r="J14" s="1">
+        <v>-7.4633012114731E-17</v>
+      </c>
+      <c r="K14" s="1">
         <v>3.3832961247904998</v>
       </c>
-      <c r="I14" s="1">
-        <v>-2.0196870931838E-17</v>
-      </c>
-      <c r="J14" s="1">
-        <v>-6.2720055419551002E-18</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1.5929515170459001</v>
-      </c>
-      <c r="L14" s="1">
-        <v>-7.4633012114731E-17</v>
-      </c>
-      <c r="M14">
-        <v>3.3832961247904998</v>
-      </c>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
         <v>2.7865145888756331</v>
@@ -3948,12 +3504,8 @@
         <f t="shared" si="1"/>
         <v>1.0336559412235395</v>
       </c>
-      <c r="Q14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:17">
+    </row>
+    <row r="15" spans="3:16">
       <c r="C15">
         <v>10</v>
       </c>
@@ -3966,27 +3518,21 @@
       <c r="F15">
         <v>3.4773907871198002</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
+        <v>4.4855728961844E-17</v>
+      </c>
+      <c r="H15" s="1">
+        <v>7.9347481494647002E-19</v>
+      </c>
+      <c r="I15" s="1">
         <v>1.2795552010192</v>
       </c>
-      <c r="H15" s="1">
+      <c r="J15" s="1">
+        <v>8.7648927323107002E-17</v>
+      </c>
+      <c r="K15" s="1">
         <v>3.4773907871198002</v>
       </c>
-      <c r="I15" s="1">
-        <v>4.4855728961844E-17</v>
-      </c>
-      <c r="J15" s="1">
-        <v>7.9347481494647002E-19</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1.2795552010192</v>
-      </c>
-      <c r="L15" s="1">
-        <v>8.7648927323107002E-17</v>
-      </c>
-      <c r="M15">
-        <v>3.4773907871198002</v>
-      </c>
       <c r="O15" s="2">
         <f t="shared" si="0"/>
         <v>2.7447789250862669</v>
@@ -3995,12 +3541,8 @@
         <f t="shared" si="1"/>
         <v>1.2689209672697204</v>
       </c>
-      <c r="Q15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:17">
+    </row>
+    <row r="16" spans="3:16">
       <c r="C16">
         <v>11</v>
       </c>
@@ -4013,27 +3555,21 @@
       <c r="F16">
         <v>3.4303846243663001</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
+        <v>-3.9389378993935E-17</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-1.6891954386097001E-18</v>
+      </c>
+      <c r="I16" s="1">
         <v>1.4405518577117</v>
       </c>
-      <c r="H16" s="1">
+      <c r="J16" s="1">
+        <v>7.9495819176108997E-17</v>
+      </c>
+      <c r="K16" s="1">
         <v>3.4303846243663001</v>
       </c>
-      <c r="I16" s="1">
-        <v>-3.9389378993935E-17</v>
-      </c>
-      <c r="J16" s="1">
-        <v>-1.6891954386097001E-18</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1.4405518577117</v>
-      </c>
-      <c r="L16" s="1">
-        <v>7.9495819176108997E-17</v>
-      </c>
-      <c r="M16">
-        <v>3.4303846243663001</v>
-      </c>
       <c r="O16" s="2">
         <f t="shared" si="0"/>
         <v>2.7671070354814336</v>
@@ -4042,12 +3578,8 @@
         <f t="shared" si="1"/>
         <v>1.1488304834703711</v>
       </c>
-      <c r="Q16">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:17">
+    </row>
+    <row r="17" spans="3:16">
       <c r="C17">
         <v>12</v>
       </c>
@@ -4060,27 +3592,21 @@
       <c r="F17">
         <v>3.3094018805625001</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
+        <v>-4.3165130424974003E-17</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.5559288528390001E-17</v>
+      </c>
+      <c r="I17" s="1">
         <v>1.8164509060178999</v>
       </c>
-      <c r="H17" s="1">
+      <c r="J17" s="1">
+        <v>-1.3058105051966E-16</v>
+      </c>
+      <c r="K17" s="1">
         <v>3.3094018805625001</v>
       </c>
-      <c r="I17" s="1">
-        <v>-4.3165130424974003E-17</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.5559288528390001E-17</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1.8164509060178999</v>
-      </c>
-      <c r="L17" s="1">
-        <v>-1.3058105051966E-16</v>
-      </c>
-      <c r="M17">
-        <v>3.3094018805625001</v>
-      </c>
       <c r="O17" s="2">
         <f t="shared" si="0"/>
         <v>2.8117515557143</v>
@@ -4089,12 +3615,8 @@
         <f t="shared" si="1"/>
         <v>0.86195564704023908</v>
       </c>
-      <c r="Q17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17">
+    </row>
+    <row r="18" spans="3:16">
       <c r="C18">
         <v>13</v>
       </c>
@@ -4107,27 +3629,21 @@
       <c r="F18">
         <v>3.2459975502997001</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
+        <v>1.0577176324217E-16</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-1.0432065345093E-17</v>
+      </c>
+      <c r="I18" s="1">
         <v>1.9949356990722</v>
       </c>
-      <c r="H18" s="1">
+      <c r="J18" s="1">
+        <v>-3.6873236481364003E-17</v>
+      </c>
+      <c r="K18" s="1">
         <v>3.2459975502997001</v>
       </c>
-      <c r="I18" s="1">
-        <v>1.0577176324217E-16</v>
-      </c>
-      <c r="J18" s="1">
-        <v>-1.0432065345093E-17</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1.9949356990722</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-3.6873236481364003E-17</v>
-      </c>
-      <c r="M18">
-        <v>3.2459975502997001</v>
-      </c>
       <c r="O18" s="2">
         <f t="shared" si="0"/>
         <v>2.828976933223867</v>
@@ -4136,12 +3652,8 @@
         <f t="shared" si="1"/>
         <v>0.72230089657906871</v>
       </c>
-      <c r="Q18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17">
+    </row>
+    <row r="19" spans="3:16">
       <c r="C19">
         <v>14</v>
       </c>
@@ -4154,27 +3666,21 @@
       <c r="F19">
         <v>3.3099507821651</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
+        <v>-4.5179114110743997E-17</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4.7776511205171999E-18</v>
+      </c>
+      <c r="I19" s="1">
         <v>1.8148549723801</v>
       </c>
-      <c r="H19" s="1">
+      <c r="J19" s="1">
+        <v>5.7079414470091995E-17</v>
+      </c>
+      <c r="K19" s="1">
         <v>3.3099507821651</v>
       </c>
-      <c r="I19" s="1">
-        <v>-4.5179114110743997E-17</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4.7776511205171999E-18</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1.8148549723801</v>
-      </c>
-      <c r="L19" s="1">
-        <v>5.7079414470091995E-17</v>
-      </c>
-      <c r="M19">
-        <v>3.3099507821651</v>
-      </c>
       <c r="O19" s="2">
         <f t="shared" si="0"/>
         <v>2.8115855122367663</v>
@@ -4183,12 +3689,8 @@
         <f t="shared" si="1"/>
         <v>0.86319396824365124</v>
       </c>
-      <c r="Q19">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:17">
+    </row>
+    <row r="20" spans="3:16">
       <c r="C20">
         <v>15</v>
       </c>
@@ -4201,27 +3703,21 @@
       <c r="F20">
         <v>3.4739122539326002</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
+        <v>-1.0385180127574E-16</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-1.8286785196706999E-18</v>
+      </c>
+      <c r="I20" s="1">
         <v>1.2917958228163999</v>
       </c>
-      <c r="H20" s="1">
+      <c r="J20" s="1">
+        <v>1.8597767957193001E-17</v>
+      </c>
+      <c r="K20" s="1">
         <v>3.4739122539326002</v>
       </c>
-      <c r="I20" s="1">
-        <v>-1.0385180127574E-16</v>
-      </c>
-      <c r="J20" s="1">
-        <v>-1.8286785196706999E-18</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1.2917958228163999</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1.8597767957193001E-17</v>
-      </c>
-      <c r="M20">
-        <v>3.4739122539326002</v>
-      </c>
       <c r="O20" s="2">
         <f t="shared" si="0"/>
         <v>2.7465401102271998</v>
@@ -4230,12 +3726,8 @@
         <f t="shared" si="1"/>
         <v>1.2598455089080436</v>
       </c>
-      <c r="Q20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17">
+    </row>
+    <row r="21" spans="3:16">
       <c r="C21">
         <v>16</v>
       </c>
@@ -4248,27 +3740,21 @@
       <c r="F21">
         <v>3.6099616677498001</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
+        <v>7.3032073724211E-17</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.9220368644602001E-17</v>
+      </c>
+      <c r="I21" s="1">
         <v>0.76664873226725005</v>
       </c>
-      <c r="H21" s="1">
+      <c r="J21" s="1">
+        <v>2.2492750763250999E-16</v>
+      </c>
+      <c r="K21" s="1">
         <v>3.6099616677498001</v>
       </c>
-      <c r="I21" s="1">
-        <v>7.3032073724211E-17</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1.9220368644602001E-17</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.76664873226725005</v>
-      </c>
-      <c r="L21" s="1">
-        <v>2.2492750763250999E-16</v>
-      </c>
-      <c r="M21">
-        <v>3.6099616677498001</v>
-      </c>
       <c r="O21" s="2">
         <f t="shared" si="0"/>
         <v>2.6621906892556169</v>
@@ -4277,12 +3763,8 @@
         <f t="shared" si="1"/>
         <v>1.6415874886911954</v>
       </c>
-      <c r="Q21">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17">
+    </row>
+    <row r="22" spans="3:16">
       <c r="C22">
         <v>17</v>
       </c>
@@ -4295,27 +3777,21 @@
       <c r="F22">
         <v>3.5954634299211001</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
+        <v>1.6144439729238999E-16</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2.4234049096302999E-18</v>
+      </c>
+      <c r="I22" s="1">
         <v>0.82771066655115</v>
       </c>
-      <c r="H22" s="1">
+      <c r="J22" s="1">
+        <v>3.4233151674886003E-17</v>
+      </c>
+      <c r="K22" s="1">
         <v>3.5954634299211001</v>
       </c>
-      <c r="I22" s="1">
-        <v>1.6144439729238999E-16</v>
-      </c>
-      <c r="J22" s="1">
-        <v>2.4234049096302999E-18</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.82771066655115</v>
-      </c>
-      <c r="L22" s="1">
-        <v>3.4233151674886003E-17</v>
-      </c>
-      <c r="M22">
-        <v>3.5954634299211001</v>
-      </c>
       <c r="O22" s="2">
         <f t="shared" si="0"/>
         <v>2.6728791754644501</v>
@@ -4324,12 +3800,8 @@
         <f t="shared" si="1"/>
         <v>1.5979628029819712</v>
       </c>
-      <c r="Q22">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17">
+    </row>
+    <row r="23" spans="3:16">
       <c r="C23">
         <v>18</v>
       </c>
@@ -4342,27 +3814,21 @@
       <c r="F23">
         <v>3.4551589777174998</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
+        <v>-1.762270681492E-16</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-1.7088930950801001E-17</v>
+      </c>
+      <c r="I23" s="1">
         <v>1.3568711816006001</v>
       </c>
-      <c r="H23" s="1">
+      <c r="J23" s="1">
+        <v>-2.0870123838064999E-16</v>
+      </c>
+      <c r="K23" s="1">
         <v>3.4551589777174998</v>
       </c>
-      <c r="I23" s="1">
-        <v>-1.762270681492E-16</v>
-      </c>
-      <c r="J23" s="1">
-        <v>-1.7088930950801001E-17</v>
-      </c>
-      <c r="K23" s="1">
-        <v>1.3568711816006001</v>
-      </c>
-      <c r="L23" s="1">
-        <v>-2.0870123838064999E-16</v>
-      </c>
-      <c r="M23">
-        <v>3.4551589777174998</v>
-      </c>
       <c r="O23" s="2">
         <f t="shared" si="0"/>
         <v>2.7557297123452003</v>
@@ -4371,12 +3837,8 @@
         <f t="shared" si="1"/>
         <v>1.2114470239253987</v>
       </c>
-      <c r="Q23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17">
+    </row>
+    <row r="24" spans="3:16">
       <c r="C24">
         <v>19</v>
       </c>
@@ -4389,27 +3851,21 @@
       <c r="F24">
         <v>3.3374252787612999</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
+        <v>-1.6062824309324999E-17</v>
+      </c>
+      <c r="H24" s="1">
+        <v>-2.2835822410652001E-19</v>
+      </c>
+      <c r="I24" s="1">
         <v>1.7337872955811</v>
       </c>
-      <c r="H24" s="1">
+      <c r="J24" s="1">
+        <v>-4.1406432139130999E-17</v>
+      </c>
+      <c r="K24" s="1">
         <v>3.3374252787612999</v>
       </c>
-      <c r="I24" s="1">
-        <v>-1.6062824309324999E-17</v>
-      </c>
-      <c r="J24" s="1">
-        <v>-2.2835822410652001E-19</v>
-      </c>
-      <c r="K24" s="1">
-        <v>1.7337872955811</v>
-      </c>
-      <c r="L24" s="1">
-        <v>-4.1406432139130999E-17</v>
-      </c>
-      <c r="M24">
-        <v>3.3374252787612999</v>
-      </c>
       <c r="O24" s="2">
         <f t="shared" si="0"/>
         <v>2.8028792843679002</v>
@@ -4418,12 +3874,8 @@
         <f t="shared" si="1"/>
         <v>0.92586082127179703</v>
       </c>
-      <c r="Q24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17">
+    </row>
+    <row r="25" spans="3:16">
       <c r="C25">
         <v>20</v>
       </c>
@@ -4436,27 +3888,21 @@
       <c r="F25">
         <v>3.3576625326855001</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
+        <v>1.0505159727791E-16</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.8249175611480998E-18</v>
+      </c>
+      <c r="I25" s="1">
         <v>1.6725296160134</v>
       </c>
-      <c r="H25" s="1">
+      <c r="J25" s="1">
+        <v>2.4169517943386001E-16</v>
+      </c>
+      <c r="K25" s="1">
         <v>3.3576625326855001</v>
       </c>
-      <c r="I25" s="1">
-        <v>1.0505159727791E-16</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1.8249175611480998E-18</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1.6725296160134</v>
-      </c>
-      <c r="L25" s="1">
-        <v>2.4169517943386001E-16</v>
-      </c>
-      <c r="M25">
-        <v>3.3576625326855001</v>
-      </c>
       <c r="O25" s="2">
         <f t="shared" si="0"/>
         <v>2.7959515604614666</v>
@@ -4465,12 +3911,8 @@
         <f t="shared" si="1"/>
         <v>0.9729119430609362</v>
       </c>
-      <c r="Q25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:17">
+    </row>
+    <row r="26" spans="3:16">
       <c r="C26">
         <v>21</v>
       </c>
@@ -4483,27 +3925,21 @@
       <c r="F26">
         <v>3.5140216779524001</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
+        <v>-2.9278910662394999E-18</v>
+      </c>
+      <c r="H26" s="1">
+        <v>8.1116227355354995E-17</v>
+      </c>
+      <c r="I26" s="1">
         <v>1.1472146752143999</v>
       </c>
-      <c r="H26" s="1">
+      <c r="J26" s="1">
+        <v>-8.5645627712154003E-17</v>
+      </c>
+      <c r="K26" s="1">
         <v>3.5140216779524001</v>
       </c>
-      <c r="I26" s="1">
-        <v>-2.9278910662394999E-18</v>
-      </c>
-      <c r="J26" s="1">
-        <v>8.1116227355354995E-17</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1.1472146752143999</v>
-      </c>
-      <c r="L26" s="1">
-        <v>-8.5645627712154003E-17</v>
-      </c>
-      <c r="M26">
-        <v>3.5140216779524001</v>
-      </c>
       <c r="O26" s="2">
         <f t="shared" si="0"/>
         <v>2.7250860103730665</v>
@@ -4512,12 +3948,8 @@
         <f t="shared" si="1"/>
         <v>1.3664766601506757</v>
       </c>
-      <c r="Q26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17">
+    </row>
+    <row r="27" spans="3:16">
       <c r="C27">
         <v>22</v>
       </c>
@@ -4530,27 +3962,21 @@
       <c r="F27">
         <v>3.6839549968153</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
+        <v>-1.1367496527820999E-16</v>
+      </c>
+      <c r="H27" s="1">
+        <v>-9.6511099550347005E-17</v>
+      </c>
+      <c r="I27" s="1">
         <v>0.43114355592068998</v>
       </c>
-      <c r="H27" s="1">
+      <c r="J27" s="1">
+        <v>3.4060032929989999E-16</v>
+      </c>
+      <c r="K27" s="1">
         <v>3.6839549968153</v>
       </c>
-      <c r="I27" s="1">
-        <v>-1.1367496527820999E-16</v>
-      </c>
-      <c r="J27" s="1">
-        <v>-9.6511099550347005E-17</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0.43114355592068998</v>
-      </c>
-      <c r="L27" s="1">
-        <v>3.4060032929989999E-16</v>
-      </c>
-      <c r="M27">
-        <v>3.6839549968153</v>
-      </c>
       <c r="O27" s="2">
         <f t="shared" si="0"/>
         <v>2.599684516517097</v>
@@ -4559,12 +3985,8 @@
         <f t="shared" si="1"/>
         <v>1.8780115610235977</v>
       </c>
-      <c r="Q27">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17">
+    </row>
+    <row r="28" spans="3:16">
       <c r="C28">
         <v>23</v>
       </c>
@@ -4577,27 +3999,21 @@
       <c r="F28">
         <v>3.7183923672708001</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
+        <v>-1.8118558051651E-16</v>
+      </c>
+      <c r="H28" s="1">
+        <v>-3.126712709733E-17</v>
+      </c>
+      <c r="I28" s="1">
         <v>0.25908123573488001</v>
       </c>
-      <c r="H28" s="1">
+      <c r="J28" s="1">
+        <v>6.9836898759676999E-16</v>
+      </c>
+      <c r="K28" s="1">
         <v>3.7183923672708001</v>
       </c>
-      <c r="I28" s="1">
-        <v>-1.8118558051651E-16</v>
-      </c>
-      <c r="J28" s="1">
-        <v>-3.126712709733E-17</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0.25908123573488001</v>
-      </c>
-      <c r="L28" s="1">
-        <v>6.9836898759676999E-16</v>
-      </c>
-      <c r="M28">
-        <v>3.7183923672708001</v>
-      </c>
       <c r="O28" s="2">
         <f t="shared" si="0"/>
         <v>2.5652886567588271</v>
@@ -4606,12 +4022,8 @@
         <f t="shared" si="1"/>
         <v>1.9972342130029324</v>
       </c>
-      <c r="Q28">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:17">
+    </row>
+    <row r="29" spans="3:16">
       <c r="C29">
         <v>24</v>
       </c>
@@ -4624,27 +4036,21 @@
       <c r="F29">
         <v>3.5921366261698999</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
+        <v>9.6699122805771996E-18</v>
+      </c>
+      <c r="H29" s="1">
+        <v>7.0468182942507996E-17</v>
+      </c>
+      <c r="I29" s="1">
         <v>0.84152849143478003</v>
       </c>
-      <c r="H29" s="1">
+      <c r="J29" s="1">
+        <v>-9.6311009114746994E-16</v>
+      </c>
+      <c r="K29" s="1">
         <v>3.5921366261698999</v>
       </c>
-      <c r="I29" s="1">
-        <v>9.6699122805771996E-18</v>
-      </c>
-      <c r="J29" s="1">
-        <v>7.0468182942507996E-17</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0.84152849143478003</v>
-      </c>
-      <c r="L29" s="1">
-        <v>-9.6311009114746994E-16</v>
-      </c>
-      <c r="M29">
-        <v>3.5921366261698999</v>
-      </c>
       <c r="O29" s="2">
         <f t="shared" si="0"/>
         <v>2.6752672479248596</v>
@@ -4653,12 +4059,8 @@
         <f t="shared" si="1"/>
         <v>1.5880643470244959</v>
       </c>
-      <c r="Q29">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17">
+    </row>
+    <row r="30" spans="3:16">
       <c r="C30">
         <v>25</v>
       </c>
@@ -4671,27 +4073,21 @@
       <c r="F30">
         <v>3.4321924906841002</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
+        <v>1.023151728002E-18</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1.700441599428E-17</v>
+      </c>
+      <c r="I30" s="1">
         <v>1.4345305499228</v>
       </c>
-      <c r="H30" s="1">
+      <c r="J30" s="1">
+        <v>-9.0672609006768999E-17</v>
+      </c>
+      <c r="K30" s="1">
         <v>3.4321924906841002</v>
       </c>
-      <c r="I30" s="1">
-        <v>1.023151728002E-18</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1.700441599428E-17</v>
-      </c>
-      <c r="K30" s="1">
-        <v>1.4345305499228</v>
-      </c>
-      <c r="L30" s="1">
-        <v>-9.0672609006768999E-17</v>
-      </c>
-      <c r="M30">
-        <v>3.4321924906841002</v>
-      </c>
       <c r="O30" s="2">
         <f t="shared" si="0"/>
         <v>2.7663051770970006</v>
@@ -4700,12 +4096,8 @@
         <f t="shared" si="1"/>
         <v>1.1533506592484069</v>
       </c>
-      <c r="Q30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:17">
+    </row>
+    <row r="31" spans="3:16">
       <c r="C31">
         <v>26</v>
       </c>
@@ -4718,27 +4110,21 @@
       <c r="F31">
         <v>3.3980602344000999</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
+        <v>3.0784854465680999E-16</v>
+      </c>
+      <c r="H31" s="1">
+        <v>-4.3236552907508003E-17</v>
+      </c>
+      <c r="I31" s="1">
         <v>1.5460633221490001</v>
       </c>
-      <c r="H31" s="1">
+      <c r="J31" s="1">
+        <v>-8.8321908513988003E-17</v>
+      </c>
+      <c r="K31" s="1">
         <v>3.3980602344000999</v>
       </c>
-      <c r="I31" s="1">
-        <v>3.0784854465680999E-16</v>
-      </c>
-      <c r="J31" s="1">
-        <v>-4.3236552907508003E-17</v>
-      </c>
-      <c r="K31" s="1">
-        <v>1.5460633221490001</v>
-      </c>
-      <c r="L31" s="1">
-        <v>-8.8321908513988003E-17</v>
-      </c>
-      <c r="M31">
-        <v>3.3980602344000999</v>
-      </c>
       <c r="O31" s="2">
         <f t="shared" si="0"/>
         <v>2.7807279303164001</v>
@@ -4747,12 +4133,8 @@
         <f t="shared" si="1"/>
         <v>1.0692509158265282</v>
       </c>
-      <c r="Q31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="3:17">
+    </row>
+    <row r="32" spans="3:16">
       <c r="C32">
         <v>27</v>
       </c>
@@ -4765,27 +4147,21 @@
       <c r="F32">
         <v>3.5286093892639001</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
+        <v>-1.0303596184461E-16</v>
+      </c>
+      <c r="H32" s="1">
+        <v>7.3794230185268004E-17</v>
+      </c>
+      <c r="I32" s="1">
         <v>1.092678037123</v>
       </c>
-      <c r="H32" s="1">
+      <c r="J32" s="1">
+        <v>1.2333666505111001E-16</v>
+      </c>
+      <c r="K32" s="1">
         <v>3.5286093892639001</v>
       </c>
-      <c r="I32" s="1">
-        <v>-1.0303596184461E-16</v>
-      </c>
-      <c r="J32" s="1">
-        <v>7.3794230185268004E-17</v>
-      </c>
-      <c r="K32" s="1">
-        <v>1.092678037123</v>
-      </c>
-      <c r="L32" s="1">
-        <v>1.2333666505111001E-16</v>
-      </c>
-      <c r="M32">
-        <v>3.5286093892639001</v>
-      </c>
       <c r="O32" s="2">
         <f t="shared" si="0"/>
         <v>2.7166322718836002</v>
@@ -4794,12 +4170,8 @@
         <f t="shared" si="1"/>
         <v>1.4063856218859976</v>
       </c>
-      <c r="Q32">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="3:17">
+    </row>
+    <row r="33" spans="3:16">
       <c r="C33">
         <v>28</v>
       </c>
@@ -4812,27 +4184,21 @@
       <c r="F33">
         <v>3.7190015703872001</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
+        <v>-3.1518424254143001E-17</v>
+      </c>
+      <c r="H33" s="1">
+        <v>-6.9826844696466002E-17</v>
+      </c>
+      <c r="I33" s="1">
         <v>0.25593225536269998</v>
       </c>
-      <c r="H33" s="1">
+      <c r="J33" s="1">
+        <v>4.0397363663815998E-17</v>
+      </c>
+      <c r="K33" s="1">
         <v>3.7190015703872001</v>
       </c>
-      <c r="I33" s="1">
-        <v>-3.1518424254143001E-17</v>
-      </c>
-      <c r="J33" s="1">
-        <v>-6.9826844696466002E-17</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0.25593225536269998</v>
-      </c>
-      <c r="L33" s="1">
-        <v>4.0397363663815998E-17</v>
-      </c>
-      <c r="M33">
-        <v>3.7190015703872001</v>
-      </c>
       <c r="O33" s="2">
         <f t="shared" si="0"/>
         <v>2.5646451320456998</v>
@@ -4841,12 +4207,8 @@
         <f t="shared" si="1"/>
         <v>1.9994040012517282</v>
       </c>
-      <c r="Q33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:17">
+    </row>
+    <row r="34" spans="3:16">
       <c r="C34">
         <v>29</v>
       </c>
@@ -4859,27 +4221,21 @@
       <c r="F34">
         <v>3.8031027085183</v>
       </c>
-      <c r="G34">
-        <v>-0.22112527897531001</v>
+      <c r="G34" s="1">
+        <v>-3.0738932101680998E-16</v>
       </c>
       <c r="H34" s="1">
+        <v>3.6763686236335001E-17</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-0.22112527897532</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2.6704804824461999E-17</v>
+      </c>
+      <c r="K34" s="1">
         <v>3.8031027085183</v>
       </c>
-      <c r="I34" s="1">
-        <v>-3.0738932101680998E-16</v>
-      </c>
-      <c r="J34" s="1">
-        <v>3.6763686236335001E-17</v>
-      </c>
-      <c r="K34" s="1">
-        <v>-0.22112527897532</v>
-      </c>
-      <c r="L34" s="1">
-        <v>2.6704804824461999E-17</v>
-      </c>
-      <c r="M34">
-        <v>3.8031027085183</v>
-      </c>
       <c r="O34" s="2">
         <f t="shared" si="0"/>
         <v>2.4616933793537599</v>
@@ -4888,12 +4244,8 @@
         <f t="shared" si="1"/>
         <v>2.3233891118598673</v>
       </c>
-      <c r="Q34">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:17">
+    </row>
+    <row r="35" spans="3:16">
       <c r="C35">
         <v>30</v>
       </c>
@@ -4906,27 +4258,21 @@
       <c r="F35">
         <v>3.7154516757225</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
+        <v>-4.1246270549568003E-17</v>
+      </c>
+      <c r="H35" s="1">
+        <v>-3.9683920976311002E-17</v>
+      </c>
+      <c r="I35" s="1">
         <v>0.27422892646891001</v>
       </c>
-      <c r="H35" s="1">
+      <c r="J35" s="1">
+        <v>5.5253139013982003E-18</v>
+      </c>
+      <c r="K35" s="1">
         <v>3.7154516757225</v>
       </c>
-      <c r="I35" s="1">
-        <v>-4.1246270549568003E-17</v>
-      </c>
-      <c r="J35" s="1">
-        <v>-3.9683920976311002E-17</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0.27422892646891001</v>
-      </c>
-      <c r="L35" s="1">
-        <v>5.5253139013982003E-18</v>
-      </c>
-      <c r="M35">
-        <v>3.7154516757225</v>
-      </c>
       <c r="O35" s="2">
         <f t="shared" si="0"/>
         <v>2.568377425971303</v>
@@ -4934,10 +4280,6 @@
       <c r="P35">
         <f t="shared" si="1"/>
         <v>1.9867908806230241</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4958,20 +4300,20 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <f>(-COS(3*D5)*(COS(D5)-SIN(D3)*SIN(D5)/SQRT(3))-3*SIN(3*D5)*(SIN(D5)+SIN(D3)*COS(D5)/SQRT(3)))/18/POWER(COS(3*D5), 3)</f>
         <v>-1.0500340131621302</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K2">
         <f>(-COS(3*D5)*(COS(D5)+SIN(D3)*SIN(D5)/SQRT(3))+3*SIN(3*D5)*(-SIN(D5)+SIN(D3)*COS(D5)/SQRT(3)))/18/POWER(COS(3*D5), 3)</f>
@@ -4980,7 +4322,7 @@
     </row>
     <row r="3" spans="2:13">
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <f>E3*PI()/180</f>
@@ -4990,14 +4332,14 @@
         <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <f>(SIN(6*D5)*(COS(D5)-SIN(D3)*SIN(D5)/SQRT(3))-6*COS(6*D5)*(SIN(D5)+SIN(D3)*COS(D5)/SQRT(3)))/18/POWER(COS(3*D5), 3)</f>
         <v>1.31362985753479</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <f>(-SIN(6*D5)*(COS(D5)+SIN(D3)*SIN(D5)/SQRT(3))-6*COS(6*D5)*(-SIN(D5)+SIN(D3)*COS(D5)/SQRT(3)))/18/POWER(COS(3*D5), 3)</f>
@@ -5006,20 +4348,20 @@
     </row>
     <row r="4" spans="2:13">
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <f>-SIN(D3)*SIN(D5)/SQRT(3)-H3*SIN(3*D5)-H2*POWER(SIN(3*D5),2)+COS(D5)</f>
         <v>0.43831401377131962</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4">
         <f>SIN(D3)*SIN(D5)/SQRT(3)+K3*SIN(3*D5)-K2*POWER(SIN(3*D5),2)+COS(D5)</f>
@@ -5028,7 +4370,7 @@
     </row>
     <row r="5" spans="2:13">
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <f>E5*PI()/180</f>
@@ -5040,34 +4382,34 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -7525,20 +6867,20 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>9.9</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <f>(-COS(3*D5)*(COS(D5)-SIN(D3)*SIN(D5)/SQRT(3))-3*SIN(3*D5)*(SIN(D5)+SIN(D3)*COS(D5)/SQRT(3)))/18/POWER(COS(3*D5), 3)</f>
         <v>-1.0565015417363013</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K2">
         <f>(-COS(3*D5)*(COS(D5)+SIN(D3)*SIN(D5)/SQRT(3))+3*SIN(3*D5)*(-SIN(D5)+SIN(D3)*COS(D5)/SQRT(3)))/18/POWER(COS(3*D5), 3)</f>
@@ -7547,7 +6889,7 @@
     </row>
     <row r="3" spans="2:13">
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <f>E3*PI()/180</f>
@@ -7557,14 +6899,14 @@
         <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <f>(SIN(6*D5)*(COS(D5)-SIN(D3)*SIN(D5)/SQRT(3))-6*COS(6*D5)*(SIN(D5)+SIN(D3)*COS(D5)/SQRT(3)))/18/POWER(COS(3*D5), 3)</f>
         <v>1.3208166612322503</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <f>(-SIN(6*D5)*(COS(D5)+SIN(D3)*SIN(D5)/SQRT(3))-6*COS(6*D5)*(-SIN(D5)+SIN(D3)*COS(D5)/SQRT(3)))/18/POWER(COS(3*D5), 3)</f>
@@ -7573,20 +6915,20 @@
     </row>
     <row r="4" spans="2:13">
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <f>-SIN(D3)*SIN(D5)/SQRT(3)-H3*SIN(3*D5)-H2*POWER(SIN(3*D5),2)+COS(D5)</f>
         <v>0.4347485396265105</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4">
         <f>SIN(D3)*SIN(D5)/SQRT(3)+K3*SIN(3*D5)-K2*POWER(SIN(3*D5),2)+COS(D5)</f>
@@ -7595,7 +6937,7 @@
     </row>
     <row r="5" spans="2:13">
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <f>E5*PI()/180</f>
@@ -7607,34 +6949,34 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:13">
